--- a/asset.xlsx
+++ b/asset.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>资产编号</t>
   </si>
@@ -44,72 +44,78 @@
     <t>购置日期</t>
   </si>
   <si>
+    <t>路由器</t>
+  </si>
+  <si>
+    <t>联想LENOVO</t>
+  </si>
+  <si>
+    <t>ERT</t>
+  </si>
+  <si>
+    <t>外网</t>
+  </si>
+  <si>
+    <t>上级采购</t>
+  </si>
+  <si>
+    <t>损坏</t>
+  </si>
+  <si>
+    <t>2017-11-02 15:15:30</t>
+  </si>
+  <si>
+    <t>显示器</t>
+  </si>
+  <si>
+    <t>富士施乐</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>2017-10-10 15:21:33</t>
+  </si>
+  <si>
+    <t>笔记本</t>
+  </si>
+  <si>
+    <t>本级采购</t>
+  </si>
+  <si>
+    <t>备用</t>
+  </si>
+  <si>
+    <t>2017-09-28 15:35:02</t>
+  </si>
+  <si>
     <t>主机</t>
   </si>
   <si>
+    <t>华硕</t>
+  </si>
+  <si>
+    <t>aaaaaa</t>
+  </si>
+  <si>
     <t>在用</t>
   </si>
   <si>
-    <t>2017-10-17 10:08:19</t>
-  </si>
-  <si>
-    <t>2017-10-17 08:06:34</t>
-  </si>
-  <si>
-    <t>笔记本</t>
-  </si>
-  <si>
-    <t>联想LENOVO</t>
-  </si>
-  <si>
-    <t>外网</t>
-  </si>
-  <si>
-    <t>本级采购</t>
-  </si>
-  <si>
-    <t>备用</t>
-  </si>
-  <si>
-    <t>2017-09-28 15:35:02</t>
-  </si>
-  <si>
-    <t>华硕</t>
-  </si>
-  <si>
-    <t>aaaaaa</t>
-  </si>
-  <si>
     <t>2017-09-28 16:00:06</t>
   </si>
   <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>上级采购</t>
-  </si>
-  <si>
     <t>借用</t>
   </si>
   <si>
     <t>2017-09-01 15:01:04</t>
   </si>
   <si>
-    <t>显示器</t>
-  </si>
-  <si>
-    <t>2017-10-10 15:21:33</t>
-  </si>
-  <si>
     <t>2017-09-30 10:50:51</t>
   </si>
   <si>
     <t>交换机</t>
   </si>
   <si>
-    <t>富士施乐</t>
-  </si>
-  <si>
     <t>2017-09-28 16:08:55</t>
   </si>
   <si>
@@ -120,9 +126,6 @@
   </si>
   <si>
     <t>djfh142122</t>
-  </si>
-  <si>
-    <t>损坏</t>
   </si>
   <si>
     <t>2017-09-28 16:05:33</t>
@@ -488,7 +491,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,33 +535,55 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>789456</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>987654</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>111</v>
+      </c>
+      <c r="E3">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -566,28 +591,28 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -595,26 +620,28 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5"/>
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -622,323 +649,318 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6"/>
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>777</v>
+      </c>
       <c r="E6">
         <v>777</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7"/>
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>999</v>
+      </c>
       <c r="E7">
-        <v>111</v>
+        <v>999</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
         <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8"/>
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>999999</v>
+      </c>
       <c r="E8">
-        <v>999</v>
+        <v>22222</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9">
-        <v>22222</v>
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>44444</v>
+      </c>
+      <c r="E10">
+        <v>44444</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11"/>
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>4545</v>
+      </c>
       <c r="E11">
-        <v>44444</v>
+        <v>4545</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
       <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12"/>
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>1221</v>
+      </c>
       <c r="E12">
-        <v>4545</v>
+        <v>1221</v>
       </c>
       <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
         <v>22</v>
       </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13"/>
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>999</v>
+      </c>
       <c r="E13">
-        <v>1221</v>
+        <v>999</v>
       </c>
       <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14"/>
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>888</v>
+      </c>
       <c r="E14">
-        <v>999</v>
+        <v>888</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15"/>
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>666</v>
+      </c>
       <c r="E15">
-        <v>888</v>
+        <v>666</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16"/>
+      <c r="D16">
+        <v>555</v>
+      </c>
       <c r="E16">
-        <v>666</v>
+        <v>555</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17">
-        <v>555</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
